--- a/insr1_sup1/insr1_sup1_graph.xlsx
+++ b/insr1_sup1/insr1_sup1_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\insr1_sup1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D43AD-1E4D-4699-9DEA-A120B047F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7022CB-3136-4A02-AE2C-D2F8B6F42FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -103,11 +102,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]insr1_sup1!$A$1</c:f>
+              <c:f>[1]general!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>insr1_LOF</c:v>
+                  <c:v>ins11_lect_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -126,17 +125,317 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]insr1_sup1!$A$2:$A$100</c:f>
+              <c:f>[1]general!$B$1:$CW$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>730</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-698B-4316-95A3-A1B06415454C}"/>
+              <c16:uniqueId val="{00000000-08E3-4CFB-A828-6F55D8B5A9DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -145,11 +444,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]insr1_sup1!$B$1</c:f>
+              <c:f>[1]general!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup1_LOF</c:v>
+                  <c:v>ins11_ecr_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -168,17 +467,1001 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]insr1_sup1!$B$2:$B$100</c:f>
+              <c:f>[1]general!$B$2:$CW$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-698B-4316-95A3-A1B06415454C}"/>
+              <c16:uniqueId val="{00000001-08E3-4CFB-A828-6F55D8B5A9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]general!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup11_lect_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]general!$B$3:$CW$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08E3-4CFB-A828-6F55D8B5A9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]general!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup11_ecr_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]general!$B$4:$CW$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08E3-4CFB-A828-6F55D8B5A9DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -942,23 +2225,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>305729</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9E4811-7EF7-4905-A77C-2C0560B262AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87416886-85CB-4D02-9F55-0EFE4F683263}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,12 +2268,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.38795</cdr:x>
-      <cdr:y>0.04453</cdr:y>
+      <cdr:x>0.3358</cdr:x>
+      <cdr:y>0.04268</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60475</cdr:x>
-      <cdr:y>0.12147</cdr:y>
+      <cdr:x>0.6545</cdr:x>
+      <cdr:y>0.11808</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1005,8 +2288,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4342466" y="222254"/>
-          <a:ext cx="2426706" cy="384015"/>
+          <a:off x="2453236" y="220363"/>
+          <a:ext cx="2328314" cy="389237"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1036,7 +2319,7 @@
       </cdr:style>
       <cdr:txBody>
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:lvl1pPr marL="0" indent="0">
@@ -1166,29 +2449,1228 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="insr1_sup1_test"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="insr1_sup1"/>
+      <sheetName val="general"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
           <cell r="A1" t="str">
-            <v>insr1_LOF</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>sup1_LOF</v>
+            <v>ins11_lect_LOF</v>
+          </cell>
+          <cell r="B1">
+            <v>2</v>
+          </cell>
+          <cell r="C1">
+            <v>5</v>
+          </cell>
+          <cell r="D1">
+            <v>8</v>
+          </cell>
+          <cell r="E1">
+            <v>11</v>
+          </cell>
+          <cell r="F1">
+            <v>14</v>
+          </cell>
+          <cell r="G1">
+            <v>17</v>
+          </cell>
+          <cell r="H1">
+            <v>20</v>
+          </cell>
+          <cell r="I1">
+            <v>23</v>
+          </cell>
+          <cell r="J1">
+            <v>26</v>
+          </cell>
+          <cell r="K1">
+            <v>29</v>
+          </cell>
+          <cell r="L1">
+            <v>32</v>
+          </cell>
+          <cell r="M1">
+            <v>36</v>
+          </cell>
+          <cell r="N1">
+            <v>40</v>
+          </cell>
+          <cell r="O1">
+            <v>44</v>
+          </cell>
+          <cell r="P1">
+            <v>48</v>
+          </cell>
+          <cell r="Q1">
+            <v>52</v>
+          </cell>
+          <cell r="R1">
+            <v>56</v>
+          </cell>
+          <cell r="S1">
+            <v>60</v>
+          </cell>
+          <cell r="T1">
+            <v>64</v>
+          </cell>
+          <cell r="U1">
+            <v>68</v>
+          </cell>
+          <cell r="V1">
+            <v>72</v>
+          </cell>
+          <cell r="W1">
+            <v>76</v>
+          </cell>
+          <cell r="X1">
+            <v>81</v>
+          </cell>
+          <cell r="Y1">
+            <v>86</v>
+          </cell>
+          <cell r="Z1">
+            <v>91</v>
+          </cell>
+          <cell r="AA1">
+            <v>96</v>
+          </cell>
+          <cell r="AB1">
+            <v>101</v>
+          </cell>
+          <cell r="AC1">
+            <v>106</v>
+          </cell>
+          <cell r="AD1">
+            <v>111</v>
+          </cell>
+          <cell r="AE1">
+            <v>116</v>
+          </cell>
+          <cell r="AF1">
+            <v>121</v>
+          </cell>
+          <cell r="AG1">
+            <v>126</v>
+          </cell>
+          <cell r="AH1">
+            <v>131</v>
+          </cell>
+          <cell r="AI1">
+            <v>136</v>
+          </cell>
+          <cell r="AJ1">
+            <v>141</v>
+          </cell>
+          <cell r="AK1">
+            <v>147</v>
+          </cell>
+          <cell r="AL1">
+            <v>153</v>
+          </cell>
+          <cell r="AM1">
+            <v>159</v>
+          </cell>
+          <cell r="AN1">
+            <v>165</v>
+          </cell>
+          <cell r="AO1">
+            <v>171</v>
+          </cell>
+          <cell r="AP1">
+            <v>177</v>
+          </cell>
+          <cell r="AQ1">
+            <v>184</v>
+          </cell>
+          <cell r="AR1">
+            <v>191</v>
+          </cell>
+          <cell r="AS1">
+            <v>198</v>
+          </cell>
+          <cell r="AT1">
+            <v>205</v>
+          </cell>
+          <cell r="AU1">
+            <v>212</v>
+          </cell>
+          <cell r="AV1">
+            <v>219</v>
+          </cell>
+          <cell r="AW1">
+            <v>226</v>
+          </cell>
+          <cell r="AX1">
+            <v>233</v>
+          </cell>
+          <cell r="AY1">
+            <v>240</v>
+          </cell>
+          <cell r="AZ1">
+            <v>247</v>
+          </cell>
+          <cell r="BA1">
+            <v>255</v>
+          </cell>
+          <cell r="BB1">
+            <v>263</v>
+          </cell>
+          <cell r="BC1">
+            <v>271</v>
+          </cell>
+          <cell r="BD1">
+            <v>279</v>
+          </cell>
+          <cell r="BE1">
+            <v>287</v>
+          </cell>
+          <cell r="BF1">
+            <v>295</v>
+          </cell>
+          <cell r="BG1">
+            <v>303</v>
+          </cell>
+          <cell r="BH1">
+            <v>311</v>
+          </cell>
+          <cell r="BI1">
+            <v>319</v>
+          </cell>
+          <cell r="BJ1">
+            <v>327</v>
+          </cell>
+          <cell r="BK1">
+            <v>336</v>
+          </cell>
+          <cell r="BL1">
+            <v>345</v>
+          </cell>
+          <cell r="BM1">
+            <v>354</v>
+          </cell>
+          <cell r="BN1">
+            <v>363</v>
+          </cell>
+          <cell r="BO1">
+            <v>372</v>
+          </cell>
+          <cell r="BP1">
+            <v>381</v>
+          </cell>
+          <cell r="BQ1">
+            <v>390</v>
+          </cell>
+          <cell r="BR1">
+            <v>399</v>
+          </cell>
+          <cell r="BS1">
+            <v>408</v>
+          </cell>
+          <cell r="BT1">
+            <v>417</v>
+          </cell>
+          <cell r="BU1">
+            <v>426</v>
+          </cell>
+          <cell r="BV1">
+            <v>436</v>
+          </cell>
+          <cell r="BW1">
+            <v>446</v>
+          </cell>
+          <cell r="BX1">
+            <v>456</v>
+          </cell>
+          <cell r="BY1">
+            <v>466</v>
+          </cell>
+          <cell r="BZ1">
+            <v>476</v>
+          </cell>
+          <cell r="CA1">
+            <v>486</v>
+          </cell>
+          <cell r="CB1">
+            <v>496</v>
+          </cell>
+          <cell r="CC1">
+            <v>506</v>
+          </cell>
+          <cell r="CD1">
+            <v>516</v>
+          </cell>
+          <cell r="CE1">
+            <v>527</v>
+          </cell>
+          <cell r="CF1">
+            <v>538</v>
+          </cell>
+          <cell r="CG1">
+            <v>549</v>
+          </cell>
+          <cell r="CH1">
+            <v>560</v>
+          </cell>
+          <cell r="CI1">
+            <v>571</v>
+          </cell>
+          <cell r="CJ1">
+            <v>582</v>
+          </cell>
+          <cell r="CK1">
+            <v>593</v>
+          </cell>
+          <cell r="CL1">
+            <v>604</v>
+          </cell>
+          <cell r="CM1">
+            <v>615</v>
+          </cell>
+          <cell r="CN1">
+            <v>626</v>
+          </cell>
+          <cell r="CO1">
+            <v>637</v>
+          </cell>
+          <cell r="CP1">
+            <v>648</v>
+          </cell>
+          <cell r="CQ1">
+            <v>659</v>
+          </cell>
+          <cell r="CR1">
+            <v>670</v>
+          </cell>
+          <cell r="CS1">
+            <v>682</v>
+          </cell>
+          <cell r="CT1">
+            <v>694</v>
+          </cell>
+          <cell r="CU1">
+            <v>706</v>
+          </cell>
+          <cell r="CV1">
+            <v>718</v>
+          </cell>
+          <cell r="CW1">
+            <v>730</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>ins11_ecr_LOF</v>
+          </cell>
+          <cell r="B2">
+            <v>1</v>
+          </cell>
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+          <cell r="D2">
+            <v>3</v>
+          </cell>
+          <cell r="E2">
+            <v>4</v>
+          </cell>
+          <cell r="F2">
+            <v>5</v>
+          </cell>
+          <cell r="G2">
+            <v>6</v>
+          </cell>
+          <cell r="H2">
+            <v>7</v>
+          </cell>
+          <cell r="I2">
+            <v>8</v>
+          </cell>
+          <cell r="J2">
+            <v>9</v>
+          </cell>
+          <cell r="K2">
+            <v>10</v>
+          </cell>
+          <cell r="L2">
+            <v>11</v>
+          </cell>
+          <cell r="M2">
+            <v>12</v>
+          </cell>
+          <cell r="N2">
+            <v>13</v>
+          </cell>
+          <cell r="O2">
+            <v>14</v>
+          </cell>
+          <cell r="P2">
+            <v>15</v>
+          </cell>
+          <cell r="Q2">
+            <v>16</v>
+          </cell>
+          <cell r="R2">
+            <v>17</v>
+          </cell>
+          <cell r="S2">
+            <v>18</v>
+          </cell>
+          <cell r="T2">
+            <v>19</v>
+          </cell>
+          <cell r="U2">
+            <v>20</v>
+          </cell>
+          <cell r="V2">
+            <v>21</v>
+          </cell>
+          <cell r="W2">
+            <v>22</v>
+          </cell>
+          <cell r="X2">
+            <v>23</v>
+          </cell>
+          <cell r="Y2">
+            <v>24</v>
+          </cell>
+          <cell r="Z2">
+            <v>25</v>
+          </cell>
+          <cell r="AA2">
+            <v>26</v>
+          </cell>
+          <cell r="AB2">
+            <v>27</v>
+          </cell>
+          <cell r="AC2">
+            <v>28</v>
+          </cell>
+          <cell r="AD2">
+            <v>29</v>
+          </cell>
+          <cell r="AE2">
+            <v>30</v>
+          </cell>
+          <cell r="AF2">
+            <v>31</v>
+          </cell>
+          <cell r="AG2">
+            <v>32</v>
+          </cell>
+          <cell r="AH2">
+            <v>33</v>
+          </cell>
+          <cell r="AI2">
+            <v>34</v>
+          </cell>
+          <cell r="AJ2">
+            <v>35</v>
+          </cell>
+          <cell r="AK2">
+            <v>36</v>
+          </cell>
+          <cell r="AL2">
+            <v>37</v>
+          </cell>
+          <cell r="AM2">
+            <v>38</v>
+          </cell>
+          <cell r="AN2">
+            <v>39</v>
+          </cell>
+          <cell r="AO2">
+            <v>40</v>
+          </cell>
+          <cell r="AP2">
+            <v>41</v>
+          </cell>
+          <cell r="AQ2">
+            <v>42</v>
+          </cell>
+          <cell r="AR2">
+            <v>43</v>
+          </cell>
+          <cell r="AS2">
+            <v>44</v>
+          </cell>
+          <cell r="AT2">
+            <v>45</v>
+          </cell>
+          <cell r="AU2">
+            <v>46</v>
+          </cell>
+          <cell r="AV2">
+            <v>47</v>
+          </cell>
+          <cell r="AW2">
+            <v>48</v>
+          </cell>
+          <cell r="AX2">
+            <v>49</v>
+          </cell>
+          <cell r="AY2">
+            <v>50</v>
+          </cell>
+          <cell r="AZ2">
+            <v>51</v>
+          </cell>
+          <cell r="BA2">
+            <v>52</v>
+          </cell>
+          <cell r="BB2">
+            <v>53</v>
+          </cell>
+          <cell r="BC2">
+            <v>54</v>
+          </cell>
+          <cell r="BD2">
+            <v>55</v>
+          </cell>
+          <cell r="BE2">
+            <v>56</v>
+          </cell>
+          <cell r="BF2">
+            <v>57</v>
+          </cell>
+          <cell r="BG2">
+            <v>58</v>
+          </cell>
+          <cell r="BH2">
+            <v>59</v>
+          </cell>
+          <cell r="BI2">
+            <v>60</v>
+          </cell>
+          <cell r="BJ2">
+            <v>61</v>
+          </cell>
+          <cell r="BK2">
+            <v>62</v>
+          </cell>
+          <cell r="BL2">
+            <v>63</v>
+          </cell>
+          <cell r="BM2">
+            <v>64</v>
+          </cell>
+          <cell r="BN2">
+            <v>65</v>
+          </cell>
+          <cell r="BO2">
+            <v>66</v>
+          </cell>
+          <cell r="BP2">
+            <v>67</v>
+          </cell>
+          <cell r="BQ2">
+            <v>68</v>
+          </cell>
+          <cell r="BR2">
+            <v>69</v>
+          </cell>
+          <cell r="BS2">
+            <v>70</v>
+          </cell>
+          <cell r="BT2">
+            <v>71</v>
+          </cell>
+          <cell r="BU2">
+            <v>72</v>
+          </cell>
+          <cell r="BV2">
+            <v>73</v>
+          </cell>
+          <cell r="BW2">
+            <v>74</v>
+          </cell>
+          <cell r="BX2">
+            <v>75</v>
+          </cell>
+          <cell r="BY2">
+            <v>76</v>
+          </cell>
+          <cell r="BZ2">
+            <v>77</v>
+          </cell>
+          <cell r="CA2">
+            <v>78</v>
+          </cell>
+          <cell r="CB2">
+            <v>79</v>
+          </cell>
+          <cell r="CC2">
+            <v>80</v>
+          </cell>
+          <cell r="CD2">
+            <v>81</v>
+          </cell>
+          <cell r="CE2">
+            <v>82</v>
+          </cell>
+          <cell r="CF2">
+            <v>83</v>
+          </cell>
+          <cell r="CG2">
+            <v>84</v>
+          </cell>
+          <cell r="CH2">
+            <v>85</v>
+          </cell>
+          <cell r="CI2">
+            <v>86</v>
+          </cell>
+          <cell r="CJ2">
+            <v>87</v>
+          </cell>
+          <cell r="CK2">
+            <v>88</v>
+          </cell>
+          <cell r="CL2">
+            <v>89</v>
+          </cell>
+          <cell r="CM2">
+            <v>90</v>
+          </cell>
+          <cell r="CN2">
+            <v>91</v>
+          </cell>
+          <cell r="CO2">
+            <v>92</v>
+          </cell>
+          <cell r="CP2">
+            <v>93</v>
+          </cell>
+          <cell r="CQ2">
+            <v>94</v>
+          </cell>
+          <cell r="CR2">
+            <v>95</v>
+          </cell>
+          <cell r="CS2">
+            <v>96</v>
+          </cell>
+          <cell r="CT2">
+            <v>97</v>
+          </cell>
+          <cell r="CU2">
+            <v>98</v>
+          </cell>
+          <cell r="CV2">
+            <v>99</v>
+          </cell>
+          <cell r="CW2">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>sup11_lect_LOF</v>
+          </cell>
+          <cell r="B3">
+            <v>2</v>
+          </cell>
+          <cell r="C3">
+            <v>4</v>
+          </cell>
+          <cell r="D3">
+            <v>6</v>
+          </cell>
+          <cell r="E3">
+            <v>9</v>
+          </cell>
+          <cell r="F3">
+            <v>12</v>
+          </cell>
+          <cell r="G3">
+            <v>16</v>
+          </cell>
+          <cell r="H3">
+            <v>19</v>
+          </cell>
+          <cell r="I3">
+            <v>22</v>
+          </cell>
+          <cell r="J3">
+            <v>26</v>
+          </cell>
+          <cell r="K3">
+            <v>29</v>
+          </cell>
+          <cell r="L3">
+            <v>32</v>
+          </cell>
+          <cell r="M3">
+            <v>36</v>
+          </cell>
+          <cell r="N3">
+            <v>39</v>
+          </cell>
+          <cell r="O3">
+            <v>42</v>
+          </cell>
+          <cell r="P3">
+            <v>46</v>
+          </cell>
+          <cell r="Q3">
+            <v>49</v>
+          </cell>
+          <cell r="R3">
+            <v>52</v>
+          </cell>
+          <cell r="S3">
+            <v>56</v>
+          </cell>
+          <cell r="T3">
+            <v>59</v>
+          </cell>
+          <cell r="U3">
+            <v>62</v>
+          </cell>
+          <cell r="V3">
+            <v>65</v>
+          </cell>
+          <cell r="W3">
+            <v>69</v>
+          </cell>
+          <cell r="X3">
+            <v>73</v>
+          </cell>
+          <cell r="Y3">
+            <v>78</v>
+          </cell>
+          <cell r="Z3">
+            <v>82</v>
+          </cell>
+          <cell r="AA3">
+            <v>86</v>
+          </cell>
+          <cell r="AB3">
+            <v>91</v>
+          </cell>
+          <cell r="AC3">
+            <v>95</v>
+          </cell>
+          <cell r="AD3">
+            <v>99</v>
+          </cell>
+          <cell r="AE3">
+            <v>104</v>
+          </cell>
+          <cell r="AF3">
+            <v>108</v>
+          </cell>
+          <cell r="AG3">
+            <v>112</v>
+          </cell>
+          <cell r="AH3">
+            <v>117</v>
+          </cell>
+          <cell r="AI3">
+            <v>121</v>
+          </cell>
+          <cell r="AJ3">
+            <v>125</v>
+          </cell>
+          <cell r="AK3">
+            <v>129</v>
+          </cell>
+          <cell r="AL3">
+            <v>134</v>
+          </cell>
+          <cell r="AM3">
+            <v>139</v>
+          </cell>
+          <cell r="AN3">
+            <v>145</v>
+          </cell>
+          <cell r="AO3">
+            <v>150</v>
+          </cell>
+          <cell r="AP3">
+            <v>155</v>
+          </cell>
+          <cell r="AQ3">
+            <v>161</v>
+          </cell>
+          <cell r="AR3">
+            <v>166</v>
+          </cell>
+          <cell r="AS3">
+            <v>171</v>
+          </cell>
+          <cell r="AT3">
+            <v>177</v>
+          </cell>
+          <cell r="AU3">
+            <v>182</v>
+          </cell>
+          <cell r="AV3">
+            <v>187</v>
+          </cell>
+          <cell r="AW3">
+            <v>192</v>
+          </cell>
+          <cell r="AX3">
+            <v>198</v>
+          </cell>
+          <cell r="AY3">
+            <v>204</v>
+          </cell>
+          <cell r="AZ3">
+            <v>210</v>
+          </cell>
+          <cell r="BA3">
+            <v>217</v>
+          </cell>
+          <cell r="BB3">
+            <v>224</v>
+          </cell>
+          <cell r="BC3">
+            <v>232</v>
+          </cell>
+          <cell r="BD3">
+            <v>239</v>
+          </cell>
+          <cell r="BE3">
+            <v>246</v>
+          </cell>
+          <cell r="BF3">
+            <v>254</v>
+          </cell>
+          <cell r="BG3">
+            <v>261</v>
+          </cell>
+          <cell r="BH3">
+            <v>268</v>
+          </cell>
+          <cell r="BI3">
+            <v>276</v>
+          </cell>
+          <cell r="BJ3">
+            <v>283</v>
+          </cell>
+          <cell r="BK3">
+            <v>290</v>
+          </cell>
+          <cell r="BL3">
+            <v>297</v>
+          </cell>
+          <cell r="BM3">
+            <v>305</v>
+          </cell>
+          <cell r="BN3">
+            <v>313</v>
+          </cell>
+          <cell r="BO3">
+            <v>322</v>
+          </cell>
+          <cell r="BP3">
+            <v>330</v>
+          </cell>
+          <cell r="BQ3">
+            <v>338</v>
+          </cell>
+          <cell r="BR3">
+            <v>347</v>
+          </cell>
+          <cell r="BS3">
+            <v>355</v>
+          </cell>
+          <cell r="BT3">
+            <v>363</v>
+          </cell>
+          <cell r="BU3">
+            <v>371</v>
+          </cell>
+          <cell r="BV3">
+            <v>380</v>
+          </cell>
+          <cell r="BW3">
+            <v>389</v>
+          </cell>
+          <cell r="BX3">
+            <v>399</v>
+          </cell>
+          <cell r="BY3">
+            <v>408</v>
+          </cell>
+          <cell r="BZ3">
+            <v>417</v>
+          </cell>
+          <cell r="CA3">
+            <v>427</v>
+          </cell>
+          <cell r="CB3">
+            <v>436</v>
+          </cell>
+          <cell r="CC3">
+            <v>445</v>
+          </cell>
+          <cell r="CD3">
+            <v>455</v>
+          </cell>
+          <cell r="CE3">
+            <v>464</v>
+          </cell>
+          <cell r="CF3">
+            <v>473</v>
+          </cell>
+          <cell r="CG3">
+            <v>483</v>
+          </cell>
+          <cell r="CH3">
+            <v>492</v>
+          </cell>
+          <cell r="CI3">
+            <v>501</v>
+          </cell>
+          <cell r="CJ3">
+            <v>511</v>
+          </cell>
+          <cell r="CK3">
+            <v>520</v>
+          </cell>
+          <cell r="CL3">
+            <v>529</v>
+          </cell>
+          <cell r="CM3">
+            <v>538</v>
+          </cell>
+          <cell r="CN3">
+            <v>548</v>
+          </cell>
+          <cell r="CO3">
+            <v>558</v>
+          </cell>
+          <cell r="CP3">
+            <v>569</v>
+          </cell>
+          <cell r="CQ3">
+            <v>579</v>
+          </cell>
+          <cell r="CR3">
+            <v>589</v>
+          </cell>
+          <cell r="CS3">
+            <v>600</v>
+          </cell>
+          <cell r="CT3">
+            <v>610</v>
+          </cell>
+          <cell r="CU3">
+            <v>620</v>
+          </cell>
+          <cell r="CV3">
+            <v>631</v>
+          </cell>
+          <cell r="CW3">
+            <v>641</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>sup11_ecr_LOF</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4">
+            <v>3</v>
+          </cell>
+          <cell r="E4">
+            <v>4</v>
+          </cell>
+          <cell r="F4">
+            <v>5</v>
+          </cell>
+          <cell r="G4">
+            <v>6</v>
+          </cell>
+          <cell r="H4">
+            <v>7</v>
+          </cell>
+          <cell r="I4">
+            <v>8</v>
+          </cell>
+          <cell r="J4">
+            <v>9</v>
+          </cell>
+          <cell r="K4">
+            <v>10</v>
+          </cell>
+          <cell r="L4">
+            <v>11</v>
+          </cell>
+          <cell r="M4">
+            <v>12</v>
+          </cell>
+          <cell r="N4">
+            <v>13</v>
+          </cell>
+          <cell r="O4">
+            <v>14</v>
+          </cell>
+          <cell r="P4">
+            <v>15</v>
+          </cell>
+          <cell r="Q4">
+            <v>16</v>
+          </cell>
+          <cell r="R4">
+            <v>17</v>
+          </cell>
+          <cell r="S4">
+            <v>18</v>
+          </cell>
+          <cell r="T4">
+            <v>19</v>
+          </cell>
+          <cell r="U4">
+            <v>20</v>
+          </cell>
+          <cell r="V4">
+            <v>21</v>
+          </cell>
+          <cell r="W4">
+            <v>22</v>
+          </cell>
+          <cell r="X4">
+            <v>23</v>
+          </cell>
+          <cell r="Y4">
+            <v>24</v>
+          </cell>
+          <cell r="Z4">
+            <v>25</v>
+          </cell>
+          <cell r="AA4">
+            <v>26</v>
+          </cell>
+          <cell r="AB4">
+            <v>27</v>
+          </cell>
+          <cell r="AC4">
+            <v>28</v>
+          </cell>
+          <cell r="AD4">
+            <v>29</v>
+          </cell>
+          <cell r="AE4">
+            <v>30</v>
+          </cell>
+          <cell r="AF4">
+            <v>31</v>
+          </cell>
+          <cell r="AG4">
+            <v>32</v>
+          </cell>
+          <cell r="AH4">
+            <v>33</v>
+          </cell>
+          <cell r="AI4">
+            <v>34</v>
+          </cell>
+          <cell r="AJ4">
+            <v>35</v>
+          </cell>
+          <cell r="AK4">
+            <v>36</v>
+          </cell>
+          <cell r="AL4">
+            <v>37</v>
+          </cell>
+          <cell r="AM4">
+            <v>38</v>
+          </cell>
+          <cell r="AN4">
+            <v>39</v>
+          </cell>
+          <cell r="AO4">
+            <v>40</v>
+          </cell>
+          <cell r="AP4">
+            <v>41</v>
+          </cell>
+          <cell r="AQ4">
+            <v>42</v>
+          </cell>
+          <cell r="AR4">
+            <v>43</v>
+          </cell>
+          <cell r="AS4">
+            <v>44</v>
+          </cell>
+          <cell r="AT4">
+            <v>45</v>
+          </cell>
+          <cell r="AU4">
+            <v>46</v>
+          </cell>
+          <cell r="AV4">
+            <v>47</v>
+          </cell>
+          <cell r="AW4">
+            <v>48</v>
+          </cell>
+          <cell r="AX4">
+            <v>49</v>
+          </cell>
+          <cell r="AY4">
+            <v>50</v>
+          </cell>
+          <cell r="AZ4">
+            <v>51</v>
+          </cell>
+          <cell r="BA4">
+            <v>52</v>
+          </cell>
+          <cell r="BB4">
+            <v>53</v>
+          </cell>
+          <cell r="BC4">
+            <v>54</v>
+          </cell>
+          <cell r="BD4">
+            <v>55</v>
+          </cell>
+          <cell r="BE4">
+            <v>56</v>
+          </cell>
+          <cell r="BF4">
+            <v>57</v>
+          </cell>
+          <cell r="BG4">
+            <v>58</v>
+          </cell>
+          <cell r="BH4">
+            <v>59</v>
+          </cell>
+          <cell r="BI4">
+            <v>60</v>
+          </cell>
+          <cell r="BJ4">
+            <v>61</v>
+          </cell>
+          <cell r="BK4">
+            <v>62</v>
+          </cell>
+          <cell r="BL4">
+            <v>63</v>
+          </cell>
+          <cell r="BM4">
+            <v>64</v>
+          </cell>
+          <cell r="BN4">
+            <v>65</v>
+          </cell>
+          <cell r="BO4">
+            <v>66</v>
+          </cell>
+          <cell r="BP4">
+            <v>67</v>
+          </cell>
+          <cell r="BQ4">
+            <v>68</v>
+          </cell>
+          <cell r="BR4">
+            <v>69</v>
+          </cell>
+          <cell r="BS4">
+            <v>70</v>
+          </cell>
+          <cell r="BT4">
+            <v>71</v>
+          </cell>
+          <cell r="BU4">
+            <v>72</v>
+          </cell>
+          <cell r="BV4">
+            <v>73</v>
+          </cell>
+          <cell r="BW4">
+            <v>74</v>
+          </cell>
+          <cell r="BX4">
+            <v>75</v>
+          </cell>
+          <cell r="BY4">
+            <v>76</v>
+          </cell>
+          <cell r="BZ4">
+            <v>77</v>
+          </cell>
+          <cell r="CA4">
+            <v>78</v>
+          </cell>
+          <cell r="CB4">
+            <v>79</v>
+          </cell>
+          <cell r="CC4">
+            <v>80</v>
+          </cell>
+          <cell r="CD4">
+            <v>81</v>
+          </cell>
+          <cell r="CE4">
+            <v>82</v>
+          </cell>
+          <cell r="CF4">
+            <v>83</v>
+          </cell>
+          <cell r="CG4">
+            <v>84</v>
+          </cell>
+          <cell r="CH4">
+            <v>85</v>
+          </cell>
+          <cell r="CI4">
+            <v>86</v>
+          </cell>
+          <cell r="CJ4">
+            <v>87</v>
+          </cell>
+          <cell r="CK4">
+            <v>88</v>
+          </cell>
+          <cell r="CL4">
+            <v>89</v>
+          </cell>
+          <cell r="CM4">
+            <v>90</v>
+          </cell>
+          <cell r="CN4">
+            <v>91</v>
+          </cell>
+          <cell r="CO4">
+            <v>92</v>
+          </cell>
+          <cell r="CP4">
+            <v>93</v>
+          </cell>
+          <cell r="CQ4">
+            <v>94</v>
+          </cell>
+          <cell r="CR4">
+            <v>95</v>
+          </cell>
+          <cell r="CS4">
+            <v>96</v>
+          </cell>
+          <cell r="CT4">
+            <v>97</v>
+          </cell>
+          <cell r="CU4">
+            <v>98</v>
+          </cell>
+          <cell r="CV4">
+            <v>99</v>
+          </cell>
+          <cell r="CW4">
+            <v>100</v>
           </cell>
         </row>
       </sheetData>
@@ -1463,7 +3945,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
